--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\aGit\Robotics_TDP_Course_Team\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\files\Robotics_TDP_Course_Team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{096AB3D4-F0E4-4B2A-8347-B9B38A4388D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FAE717-DE97-4962-A1D6-698672E9377B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C352601-0D6F-40E0-BA22-35B623F995D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{0C352601-0D6F-40E0-BA22-35B623F995D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,27 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
-  <si>
-    <t>Horizontal Hand Shake</t>
-  </si>
-  <si>
-    <t>Vertical hand shake</t>
-  </si>
-  <si>
-    <t>Running preparation</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>Requirements</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shake head</t>
-  </si>
-  <si>
-    <t>shake_hand</t>
-  </si>
-  <si>
     <t>Dynamic Action</t>
   </si>
   <si>
@@ -152,11 +137,6 @@
   </si>
   <si>
     <t>调用方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  wbu_motion_play(side_step_left);
-  currently_playing = side_step_left;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -205,6 +185,166 @@
   </si>
   <si>
     <t>robot motion control</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>standupfromfront</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向前摔倒后站起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arm_action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_arms(horizontally move arms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise_arms(vertically move arms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend_arms(running preparation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张开双臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>举起双臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弯曲双臂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左转40°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>左转60°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右转40°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右转60°</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_arms()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise_arms()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend_arms()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake_head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>挥手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摇头转视角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand_wave()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>open_arms();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>raise_arms();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bend_arms();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motion函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速左走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速左走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速右走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速右走</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速向前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速向前</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快速向后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢速向后</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大力射门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻推射门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向后摔倒后站起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  wbu_motion_play(side_step_left); currently_playing = side_step_left;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wave_hand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hand_wave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake_head()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shake_head();</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -302,7 +442,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,12 +469,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -650,287 +784,394 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7E414E9-77BE-4B4F-BE5F-0DBAFBB37450}">
-  <dimension ref="A1:M35"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.109375" customWidth="1"/>
-    <col min="2" max="3" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="23.08203125" customWidth="1"/>
+    <col min="2" max="3" width="20.75" customWidth="1"/>
+    <col min="4" max="4" width="35.4140625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="6"/>
       <c r="F1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="112" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>38</v>
+      </c>
+      <c r="H28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="D31" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M2" s="1" t="s">
+      <c r="F32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>47</v>
+      </c>
+      <c r="H32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C33" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="M3" s="3" t="s">
+      <c r="F33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C36" s="7" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="10"/>
-      <c r="D9" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G9" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="10"/>
-      <c r="D10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C11" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="H13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="124.2" x14ac:dyDescent="0.25">
-      <c r="C15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" t="s">
-        <v>39</v>
-      </c>
-      <c r="H18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="D30" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>24</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
